--- a/biology/Mycologie/Cladoniaceae/Cladoniaceae.xlsx
+++ b/biology/Mycologie/Cladoniaceae/Cladoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cladoniaceae (Cladoniacées) sont une famille de champignons lichénisés associés à des algues vertes. La famille comporte environ 500 espèces à la morphologie remarquablement constante : sauf exception, il s'agit de lichens essentiellement terricoles comportant un thalle primaire horizontal, persistant ou évanescent, et sur lequel se dressent des structures verticales nommées podétions qui portent les ascomes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cladoniaceae (Cladoniacées) sont une famille de champignons lichénisés associés à des algues vertes. La famille comporte environ 500 espèces à la morphologie remarquablement constante : sauf exception, il s'agit de lichens essentiellement terricoles comportant un thalle primaire horizontal, persistant ou évanescent, et sur lequel se dressent des structures verticales nommées podétions qui portent les ascomes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres et sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (18 mars 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (18 mars 2024) :
 Biscladinomyces Cif. &amp; Tomas., 1953
 Biseucladoniomyces Cif. &amp; Tomas., 1953
 Calathaspis I.M. Lamb &amp; W.A. Weber, 1972
@@ -580,9 +594,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cladoniaceae Zenker, 1827[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Cladoniaceae Zenker, 1827.
 </t>
         </is>
       </c>
@@ -611,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Jonathan Carl Zenker, Kryptogamische Parasiten auf officinellen Rinden, vol. 1, 1827, p. 109-200</t>
         </is>
